--- a/Java/BGTransport/src/main/resources/excel/list/company.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/list/company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\BGTransports\Java\BGTransport\src\main\resources\excel\list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84144FC-EC1C-4EE0-8217-7D4533FE39D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B84144FC-EC1C-4EE0-8217-7D4533FE39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9452F277-5DF4-4197-888A-7BEA765B92FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D46561FF-82E1-4E07-BAED-B02E6297CA5D}"/>
   </bookViews>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,31 +1030,31 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.8984375" customWidth="1"/>
-    <col min="8" max="8" width="14.296875" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" customWidth="1"/>
-    <col min="11" max="11" width="8.09765625" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="12.3984375" customWidth="1"/>
-    <col min="15" max="15" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
